--- a/MS/本部_第5组_期末案例.xlsx
+++ b/MS/本部_第5组_期末案例.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
   <si>
     <t>决策树</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除去咨询费投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,9 +184,6 @@
     <t>P(Finding | State)</t>
   </si>
   <si>
-    <t>咨询</t>
-  </si>
-  <si>
     <t>State of</t>
   </si>
   <si>
@@ -198,9 +191,6 @@
   </si>
   <si>
     <t>Finding</t>
-  </si>
-  <si>
-    <t>不咨询</t>
   </si>
   <si>
     <t>Nature</t>
@@ -942,28 +932,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,6 +1081,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4427,15 +4417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="54" t="s">
-        <v>57</v>
+      <c r="A1" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4448,7 +4438,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" thickBot="1">
@@ -4463,197 +4453,197 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55" t="s">
-        <v>59</v>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="57">
+      <c r="K3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="51">
         <v>154</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="51">
         <v>2</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="57">
+      <c r="K4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="51">
         <v>38</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="51">
         <v>6</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57">
+      <c r="N4" s="51"/>
+      <c r="O4" s="51">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="20">
         <f>192/200</f>
         <v>0.96</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="21">
         <f>154/192</f>
         <v>0.80208333333333337</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <f>1-D6</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="57">
+      <c r="K6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="51">
         <v>192</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="51">
         <v>8</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57">
+      <c r="N6" s="51"/>
+      <c r="O6" s="51">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="20">
         <f>1-C6</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="21">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="21">
         <f>1-D7</f>
         <v>0.75</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" thickBot="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -4673,63 +4663,63 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9"/>
-      <c r="B12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="B12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9"/>
-      <c r="B13" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9"/>
-      <c r="B14" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="40" t="str">
+      <c r="B14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="34" t="str">
         <f>IF(B6="","",B6)</f>
         <v>成功</v>
       </c>
-      <c r="E14" s="41" t="str">
+      <c r="E14" s="35" t="str">
         <f>IF(B7="","",B7)</f>
         <v>失败</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="35" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="G14" s="35" t="str">
         <f>IF(B9="","",B9)</f>
         <v/>
       </c>
-      <c r="H14" s="42" t="str">
+      <c r="H14" s="36" t="str">
         <f>IF(B10="","",B10)</f>
         <v/>
       </c>
@@ -4739,31 +4729,31 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9"/>
-      <c r="B15" s="43" t="str">
+      <c r="B15" s="37" t="str">
         <f>IF(D5="","",D5)</f>
         <v>可投</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="38">
         <f>IF(D6="","",SUMPRODUCT(C6:C10,D6:D10))</f>
         <v>0.78</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="39">
         <f>IF(D6="","",C6*D6/SUMPRODUCT(C6:C10,D6:D10))</f>
         <v>0.98717948717948711</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="39">
         <f>IF(D7="","",C7*D7/SUMPRODUCT(C6:C10,D6:D10))</f>
         <v>1.2820512820512832E-2</v>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="40" t="str">
         <f>IF(D8="","",C8*D8/SUMPRODUCT(C6:C10,D6:D10))</f>
         <v/>
       </c>
-      <c r="G15" s="46" t="str">
+      <c r="G15" s="40" t="str">
         <f>IF(D9="","",C9*D9/SUMPRODUCT(C6:C10,D6:D10))</f>
         <v/>
       </c>
-      <c r="H15" s="47" t="str">
+      <c r="H15" s="41" t="str">
         <f>IF(D10="","",C10*D10/SUMPRODUCT(C6:C10,D6:D10))</f>
         <v/>
       </c>
@@ -4773,31 +4763,31 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9"/>
-      <c r="B16" s="43" t="str">
+      <c r="B16" s="37" t="str">
         <f>IF(E5="","",E5)</f>
         <v>不宜</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="42">
         <f>IF(E6="","",SUMPRODUCT(C6:C10,E6:E10))</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <f>IF(E6="","",C6*E6/SUMPRODUCT(C6:C10,E6:E10))</f>
         <v>0.86363636363636354</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="39">
         <f>IF(E7="","",C7*E7/SUMPRODUCT(C6:C10,E6:E10))</f>
         <v>0.13636363636363649</v>
       </c>
-      <c r="F16" s="46" t="str">
+      <c r="F16" s="40" t="str">
         <f>IF(E8="","",C8*E8/SUMPRODUCT(C6:C10,E6:E10))</f>
         <v/>
       </c>
-      <c r="G16" s="46" t="str">
+      <c r="G16" s="40" t="str">
         <f>IF(E9="","",C9*E9/SUMPRODUCT(C6:C10,E6:E10))</f>
         <v/>
       </c>
-      <c r="H16" s="47" t="str">
+      <c r="H16" s="41" t="str">
         <f>IF(E10="","",C10*E10/SUMPRODUCT(C6:C10,E6:E10))</f>
         <v/>
       </c>
@@ -4807,31 +4797,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9"/>
-      <c r="B17" s="43" t="str">
+      <c r="B17" s="37" t="str">
         <f>IF(F5="","",F5)</f>
         <v/>
       </c>
-      <c r="C17" s="48" t="str">
+      <c r="C17" s="42" t="str">
         <f>IF(F6="","",SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="40" t="str">
         <f>IF(F6="","",C6*F6/SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
-      <c r="E17" s="46" t="str">
+      <c r="E17" s="40" t="str">
         <f>IF(F7="","",C7*F7/SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
-      <c r="F17" s="46" t="str">
+      <c r="F17" s="40" t="str">
         <f>IF(F8="","",C8*F8/SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
-      <c r="G17" s="46" t="str">
+      <c r="G17" s="40" t="str">
         <f>IF(F9="","",C9*F9/SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
-      <c r="H17" s="47" t="str">
+      <c r="H17" s="41" t="str">
         <f>IF(F10="","",C10*F10/SUMPRODUCT(C6:C10,F6:F10))</f>
         <v/>
       </c>
@@ -4841,31 +4831,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9"/>
-      <c r="B18" s="43" t="str">
+      <c r="B18" s="37" t="str">
         <f>IF(G5="","",G5)</f>
         <v/>
       </c>
-      <c r="C18" s="48" t="str">
+      <c r="C18" s="42" t="str">
         <f>IF(G6="","",SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
-      <c r="D18" s="46" t="str">
+      <c r="D18" s="40" t="str">
         <f>IF(G6="","",C6*G6/SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
-      <c r="E18" s="46" t="str">
+      <c r="E18" s="40" t="str">
         <f>IF(G7="","",C7*G7/SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
-      <c r="F18" s="46" t="str">
+      <c r="F18" s="40" t="str">
         <f>IF(G8="","",C8*G8/SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
-      <c r="G18" s="46" t="str">
+      <c r="G18" s="40" t="str">
         <f>IF(G9="","",C9*G9/SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
-      <c r="H18" s="47" t="str">
+      <c r="H18" s="41" t="str">
         <f>IF(G10="","",C10*G10/SUMPRODUCT(C6:C10,G6:G10))</f>
         <v/>
       </c>
@@ -4875,31 +4865,31 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" thickBot="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="43" t="str">
         <f>IF(H5="","",H5)</f>
         <v/>
       </c>
-      <c r="C19" s="50" t="str">
+      <c r="C19" s="44" t="str">
         <f>IF(H6="","",SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
-      <c r="D19" s="51" t="str">
+      <c r="D19" s="45" t="str">
         <f>IF(H6="","",C6*H6/SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
-      <c r="E19" s="51" t="str">
+      <c r="E19" s="45" t="str">
         <f>IF(H7="","",C7*H7/SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
-      <c r="F19" s="51" t="str">
+      <c r="F19" s="45" t="str">
         <f>IF(H8="","",C8*H8/SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
-      <c r="G19" s="51" t="str">
+      <c r="G19" s="45" t="str">
         <f>IF(H9="","",C9*H9/SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
-      <c r="H19" s="52" t="str">
+      <c r="H19" s="46" t="str">
         <f>IF(H10="","",C10*H10/SUMPRODUCT(C6:C10,H6:H10))</f>
         <v/>
       </c>
@@ -4976,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GV1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5053,8 +5043,9 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>13</v>
+      <c r="O5" s="1" t="str">
+        <f>G5</f>
+        <v>购买企业理财</v>
       </c>
       <c r="P5">
         <v>0.1</v>
@@ -5066,25 +5057,25 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <f>C4-C5</f>
         <v>4992</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="4:23">
@@ -5188,7 +5179,7 @@
         <v>491.20000000000005</v>
       </c>
       <c r="W30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="4:23">
@@ -5441,7 +5432,7 @@
     </row>
     <row r="62" spans="2:22">
       <c r="B62" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" s="7" t="str">
         <f>IF(E44=1,G6,G7)</f>
@@ -5469,11 +5460,12 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="P67" t="str">
+      <c r="O67" s="61"/>
+      <c r="P67" s="61" t="str">
         <f>C62</f>
         <v>咨询</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="61">
         <f>D45</f>
         <v>820.67199999999934</v>
       </c>
@@ -5489,60 +5481,62 @@
     <row r="68" spans="1:24">
       <c r="A68" s="9"/>
       <c r="B68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="9"/>
-      <c r="O68">
+      <c r="O68" s="61">
         <v>0.78</v>
       </c>
-      <c r="P68" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q68">
-        <v>501.49600000000038</v>
+      <c r="P68" s="61" t="str">
+        <f t="dataTable" ref="P68:Q99" dt2D="0" dtr="0" r1="D71"/>
+        <v>咨询</v>
+      </c>
+      <c r="Q68" s="61">
+        <v>810.08895999999993</v>
       </c>
       <c r="V68">
         <v>0.9</v>
       </c>
       <c r="W68">
+        <f t="dataTable" ref="W68:X99" dt2D="0" dtr="0" r1="C71" ca="1"/>
         <v>714.27999999999975</v>
       </c>
-      <c r="X68" t="s">
-        <v>23</v>
+      <c r="X68" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="9"/>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="67"/>
       <c r="I69" s="9"/>
-      <c r="O69">
+      <c r="O69" s="61">
         <v>0.76</v>
       </c>
-      <c r="P69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q69">
-        <v>500</v>
+      <c r="P69" s="61" t="str">
+        <v>咨询</v>
+      </c>
+      <c r="Q69" s="61">
+        <v>800.50431999999978</v>
       </c>
       <c r="V69">
         <v>0.88</v>
@@ -5550,36 +5544,36 @@
       <c r="W69">
         <v>678.81599999999946</v>
       </c>
-      <c r="X69" t="s">
-        <v>23</v>
+      <c r="X69" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="9"/>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="9"/>
-      <c r="O70">
+      <c r="O70" s="61">
         <v>0.74</v>
       </c>
-      <c r="P70" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q70">
-        <v>500</v>
+      <c r="P70" s="61" t="str">
+        <v>咨询</v>
+      </c>
+      <c r="Q70" s="61">
+        <v>790.91967999999974</v>
       </c>
       <c r="V70">
         <v>0.86</v>
@@ -5587,39 +5581,39 @@
       <c r="W70">
         <v>643.35199999999941</v>
       </c>
-      <c r="X70" t="s">
-        <v>23</v>
+      <c r="X70" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="9"/>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="20">
         <f>192/200</f>
         <v>0.96</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="21">
         <f>154/192</f>
         <v>0.80208333333333337</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="21">
         <f>1-D71</f>
         <v>0.19791666666666663</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="9"/>
-      <c r="O71">
+      <c r="O71" s="61">
         <v>0.72</v>
       </c>
-      <c r="P71" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q71">
-        <v>500</v>
+      <c r="P71" s="61" t="str">
+        <v>咨询</v>
+      </c>
+      <c r="Q71" s="61">
+        <v>781.33503999999982</v>
       </c>
       <c r="V71">
         <v>0.84</v>
@@ -5627,39 +5621,39 @@
       <c r="W71">
         <v>607.88799999999981</v>
       </c>
-      <c r="X71" t="s">
-        <v>23</v>
+      <c r="X71" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="9"/>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="20">
         <f>1-C71</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="21">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="21">
         <f>1-D72</f>
         <v>0.75</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="9"/>
-      <c r="O72">
+      <c r="O72" s="61">
         <v>0.7</v>
       </c>
-      <c r="P72" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q72">
-        <v>500</v>
+      <c r="P72" s="61" t="str">
+        <v>咨询</v>
+      </c>
+      <c r="Q72" s="61">
+        <v>771.7503999999999</v>
       </c>
       <c r="V72">
         <v>0.82</v>
@@ -5667,28 +5661,28 @@
       <c r="W72">
         <v>572.42399999999975</v>
       </c>
-      <c r="X72" t="s">
-        <v>23</v>
+      <c r="X72" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="9"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="9"/>
-      <c r="O73">
+      <c r="O73" s="61">
         <v>0.68</v>
       </c>
-      <c r="P73" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q73">
-        <v>500</v>
+      <c r="P73" s="61" t="str">
+        <v>咨询</v>
+      </c>
+      <c r="Q73" s="61">
+        <v>762.16575999999986</v>
       </c>
       <c r="V73">
         <v>0.8</v>
@@ -5696,28 +5690,28 @@
       <c r="W73">
         <v>536.96000000000015</v>
       </c>
-      <c r="X73" t="s">
-        <v>23</v>
+      <c r="X73" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="9"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="9"/>
-      <c r="O74">
+      <c r="O74" s="61">
         <v>0.66</v>
       </c>
-      <c r="P74" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q74">
-        <v>500</v>
+      <c r="P74" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q74" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V74">
         <v>0.78</v>
@@ -5725,28 +5719,28 @@
       <c r="W74">
         <v>501.49600000000038</v>
       </c>
-      <c r="X74" t="s">
-        <v>23</v>
+      <c r="X74" t="str">
+        <v>咨询</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="14.25" thickBot="1">
       <c r="A75" s="9"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="34"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="9"/>
-      <c r="O75">
+      <c r="O75" s="61">
         <v>0.64</v>
       </c>
-      <c r="P75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q75">
-        <v>500</v>
+      <c r="P75" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q75" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V75">
         <v>0.76</v>
@@ -5754,8 +5748,8 @@
       <c r="W75">
         <v>500</v>
       </c>
-      <c r="X75" t="s">
-        <v>27</v>
+      <c r="X75" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="14.25" thickBot="1">
@@ -5768,14 +5762,14 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="O76">
+      <c r="O76" s="61">
         <v>0.62</v>
       </c>
-      <c r="P76" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76">
-        <v>500</v>
+      <c r="P76" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q76" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V76">
         <v>0.74</v>
@@ -5783,32 +5777,32 @@
       <c r="W76">
         <v>500</v>
       </c>
-      <c r="X76" t="s">
-        <v>27</v>
+      <c r="X76" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="9"/>
-      <c r="B77" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
+      <c r="B77" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="64"/>
       <c r="I77" s="9"/>
-      <c r="O77">
+      <c r="O77" s="61">
         <v>0.6</v>
       </c>
-      <c r="P77" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q77">
-        <v>500</v>
+      <c r="P77" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q77" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V77">
         <v>0.72</v>
@@ -5816,32 +5810,32 @@
       <c r="W77">
         <v>500</v>
       </c>
-      <c r="X77" t="s">
-        <v>27</v>
+      <c r="X77" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="9"/>
-      <c r="B78" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="19"/>
+      <c r="B78" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="67"/>
       <c r="I78" s="9"/>
-      <c r="O78">
+      <c r="O78" s="61">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P78" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q78">
-        <v>500</v>
+      <c r="P78" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q78" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V78">
         <v>0.7</v>
@@ -5849,47 +5843,47 @@
       <c r="W78">
         <v>500</v>
       </c>
-      <c r="X78" t="s">
-        <v>27</v>
+      <c r="X78" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="9"/>
-      <c r="B79" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="40" t="str">
+      <c r="B79" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="34" t="str">
         <f>IF(B71="","",B71)</f>
         <v>成功</v>
       </c>
-      <c r="E79" s="41" t="str">
+      <c r="E79" s="35" t="str">
         <f>IF(B72="","",B72)</f>
         <v>失败</v>
       </c>
-      <c r="F79" s="41" t="str">
+      <c r="F79" s="35" t="str">
         <f>IF(B73="","",B73)</f>
         <v/>
       </c>
-      <c r="G79" s="41" t="str">
+      <c r="G79" s="35" t="str">
         <f>IF(B74="","",B74)</f>
         <v/>
       </c>
-      <c r="H79" s="42" t="str">
+      <c r="H79" s="36" t="str">
         <f>IF(B75="","",B75)</f>
         <v/>
       </c>
       <c r="I79" s="9"/>
-      <c r="O79">
+      <c r="O79" s="61">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P79" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q79">
-        <v>500</v>
+      <c r="P79" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q79" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V79">
         <v>0.68</v>
@@ -5897,49 +5891,49 @@
       <c r="W79">
         <v>500</v>
       </c>
-      <c r="X79" t="s">
-        <v>27</v>
+      <c r="X79" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="9"/>
-      <c r="B80" s="43" t="str">
+      <c r="B80" s="37" t="str">
         <f>IF(D70="","",D70)</f>
         <v>可投</v>
       </c>
-      <c r="C80" s="44">
+      <c r="C80" s="38">
         <f>IF(D71="","",SUMPRODUCT(C71:C75,D71:D75))</f>
         <v>0.78</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="39">
         <f>IF(D71="","",C71*D71/SUMPRODUCT(C71:C75,D71:D75))</f>
         <v>0.98717948717948711</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E80" s="39">
         <f>IF(D72="","",C72*D72/SUMPRODUCT(C71:C75,D71:D75))</f>
         <v>1.2820512820512832E-2</v>
       </c>
-      <c r="F80" s="46" t="str">
+      <c r="F80" s="40" t="str">
         <f>IF(D73="","",C73*D73/SUMPRODUCT(C71:C75,D71:D75))</f>
         <v/>
       </c>
-      <c r="G80" s="46" t="str">
+      <c r="G80" s="40" t="str">
         <f>IF(D74="","",C74*D74/SUMPRODUCT(C71:C75,D71:D75))</f>
         <v/>
       </c>
-      <c r="H80" s="47" t="str">
+      <c r="H80" s="41" t="str">
         <f>IF(D75="","",C75*D75/SUMPRODUCT(C71:C75,D71:D75))</f>
         <v/>
       </c>
       <c r="I80" s="9"/>
-      <c r="O80">
+      <c r="O80" s="61">
         <v>0.54</v>
       </c>
-      <c r="P80" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q80">
-        <v>500</v>
+      <c r="P80" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q80" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V80">
         <v>0.66</v>
@@ -5947,49 +5941,49 @@
       <c r="W80">
         <v>500</v>
       </c>
-      <c r="X80" t="s">
-        <v>27</v>
+      <c r="X80" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="9"/>
-      <c r="B81" s="43" t="str">
+      <c r="B81" s="37" t="str">
         <f>IF(E70="","",E70)</f>
         <v>不宜</v>
       </c>
-      <c r="C81" s="48">
+      <c r="C81" s="42">
         <f>IF(E71="","",SUMPRODUCT(C71:C75,E71:E75))</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="D81" s="45">
+      <c r="D81" s="39">
         <f>IF(E71="","",C71*E71/SUMPRODUCT(C71:C75,E71:E75))</f>
         <v>0.86363636363636354</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="39">
         <f>IF(E72="","",C72*E72/SUMPRODUCT(C71:C75,E71:E75))</f>
         <v>0.13636363636363649</v>
       </c>
-      <c r="F81" s="46" t="str">
+      <c r="F81" s="40" t="str">
         <f>IF(E73="","",C73*E73/SUMPRODUCT(C71:C75,E71:E75))</f>
         <v/>
       </c>
-      <c r="G81" s="46" t="str">
+      <c r="G81" s="40" t="str">
         <f>IF(E74="","",C74*E74/SUMPRODUCT(C71:C75,E71:E75))</f>
         <v/>
       </c>
-      <c r="H81" s="47" t="str">
+      <c r="H81" s="41" t="str">
         <f>IF(E75="","",C75*E75/SUMPRODUCT(C71:C75,E71:E75))</f>
         <v/>
       </c>
       <c r="I81" s="9"/>
-      <c r="O81">
+      <c r="O81" s="61">
         <v>0.52</v>
       </c>
-      <c r="P81" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q81">
-        <v>500</v>
+      <c r="P81" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q81" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V81">
         <v>0.64</v>
@@ -5997,49 +5991,49 @@
       <c r="W81">
         <v>500</v>
       </c>
-      <c r="X81" t="s">
-        <v>27</v>
+      <c r="X81" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="9"/>
-      <c r="B82" s="43" t="str">
+      <c r="B82" s="37" t="str">
         <f>IF(F70="","",F70)</f>
         <v/>
       </c>
-      <c r="C82" s="48" t="str">
+      <c r="C82" s="42" t="str">
         <f>IF(F71="","",SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
-      <c r="D82" s="46" t="str">
+      <c r="D82" s="40" t="str">
         <f>IF(F71="","",C71*F71/SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
-      <c r="E82" s="46" t="str">
+      <c r="E82" s="40" t="str">
         <f>IF(F72="","",C72*F72/SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
-      <c r="F82" s="46" t="str">
+      <c r="F82" s="40" t="str">
         <f>IF(F73="","",C73*F73/SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
-      <c r="G82" s="46" t="str">
+      <c r="G82" s="40" t="str">
         <f>IF(F74="","",C74*F74/SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
-      <c r="H82" s="47" t="str">
+      <c r="H82" s="41" t="str">
         <f>IF(F75="","",C75*F75/SUMPRODUCT(C71:C75,F71:F75))</f>
         <v/>
       </c>
       <c r="I82" s="9"/>
-      <c r="O82">
+      <c r="O82" s="61">
         <v>0.5</v>
       </c>
-      <c r="P82" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q82">
-        <v>500</v>
+      <c r="P82" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q82" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V82">
         <v>0.62</v>
@@ -6047,49 +6041,49 @@
       <c r="W82">
         <v>500</v>
       </c>
-      <c r="X82" t="s">
-        <v>27</v>
+      <c r="X82" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="9"/>
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="37" t="str">
         <f>IF(G70="","",G70)</f>
         <v/>
       </c>
-      <c r="C83" s="48" t="str">
+      <c r="C83" s="42" t="str">
         <f>IF(G71="","",SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
-      <c r="D83" s="46" t="str">
+      <c r="D83" s="40" t="str">
         <f>IF(G71="","",C71*G71/SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
-      <c r="E83" s="46" t="str">
+      <c r="E83" s="40" t="str">
         <f>IF(G72="","",C72*G72/SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
-      <c r="F83" s="46" t="str">
+      <c r="F83" s="40" t="str">
         <f>IF(G73="","",C73*G73/SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
-      <c r="G83" s="46" t="str">
+      <c r="G83" s="40" t="str">
         <f>IF(G74="","",C74*G74/SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
-      <c r="H83" s="47" t="str">
+      <c r="H83" s="41" t="str">
         <f>IF(G75="","",C75*G75/SUMPRODUCT(C71:C75,G71:G75))</f>
         <v/>
       </c>
       <c r="I83" s="9"/>
-      <c r="O83">
+      <c r="O83" s="61">
         <v>0.48</v>
       </c>
-      <c r="P83" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q83">
-        <v>500</v>
+      <c r="P83" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q83" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V83">
         <v>0.6</v>
@@ -6097,49 +6091,49 @@
       <c r="W83">
         <v>500</v>
       </c>
-      <c r="X83" t="s">
-        <v>27</v>
+      <c r="X83" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="14.25" thickBot="1">
       <c r="A84" s="9"/>
-      <c r="B84" s="49" t="str">
+      <c r="B84" s="43" t="str">
         <f>IF(H70="","",H70)</f>
         <v/>
       </c>
-      <c r="C84" s="50" t="str">
+      <c r="C84" s="44" t="str">
         <f>IF(H71="","",SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
-      <c r="D84" s="51" t="str">
+      <c r="D84" s="45" t="str">
         <f>IF(H71="","",C71*H71/SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
-      <c r="E84" s="51" t="str">
+      <c r="E84" s="45" t="str">
         <f>IF(H72="","",C72*H72/SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
-      <c r="F84" s="51" t="str">
+      <c r="F84" s="45" t="str">
         <f>IF(H73="","",C73*H73/SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
-      <c r="G84" s="51" t="str">
+      <c r="G84" s="45" t="str">
         <f>IF(H74="","",C74*H74/SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
-      <c r="H84" s="52" t="str">
+      <c r="H84" s="46" t="str">
         <f>IF(H75="","",C75*H75/SUMPRODUCT(C71:C75,H71:H75))</f>
         <v/>
       </c>
       <c r="I84" s="9"/>
-      <c r="O84">
+      <c r="O84" s="61">
         <v>0.46</v>
       </c>
-      <c r="P84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q84">
-        <v>500</v>
+      <c r="P84" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q84" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V84">
         <v>0.57999999999999996</v>
@@ -6147,8 +6141,8 @@
       <c r="W84">
         <v>500</v>
       </c>
-      <c r="X84" t="s">
-        <v>27</v>
+      <c r="X84" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6161,14 +6155,14 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="O85">
+      <c r="O85" s="61">
         <v>0.44</v>
       </c>
-      <c r="P85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q85">
-        <v>500</v>
+      <c r="P85" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q85" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V85">
         <v>0.56000000000000005</v>
@@ -6176,8 +6170,8 @@
       <c r="W85">
         <v>500</v>
       </c>
-      <c r="X85" t="s">
-        <v>27</v>
+      <c r="X85" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -6190,14 +6184,14 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="O86">
+      <c r="O86" s="61">
         <v>0.42</v>
       </c>
-      <c r="P86" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q86">
-        <v>500</v>
+      <c r="P86" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q86" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V86">
         <v>0.54</v>
@@ -6205,19 +6199,19 @@
       <c r="W86">
         <v>500</v>
       </c>
-      <c r="X86" t="s">
-        <v>27</v>
+      <c r="X86" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="O87">
+      <c r="O87" s="61">
         <v>0.4</v>
       </c>
-      <c r="P87" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q87">
-        <v>500</v>
+      <c r="P87" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q87" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V87">
         <v>0.52</v>
@@ -6225,19 +6219,19 @@
       <c r="W87">
         <v>500</v>
       </c>
-      <c r="X87" t="s">
-        <v>27</v>
+      <c r="X87" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="O88">
+      <c r="O88" s="61">
         <v>0.38</v>
       </c>
-      <c r="P88" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q88">
-        <v>500</v>
+      <c r="P88" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q88" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V88">
         <v>0.5</v>
@@ -6245,19 +6239,19 @@
       <c r="W88">
         <v>500</v>
       </c>
-      <c r="X88" t="s">
-        <v>27</v>
+      <c r="X88" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="89" spans="1:24">
-      <c r="O89">
+      <c r="O89" s="61">
         <v>0.36</v>
       </c>
-      <c r="P89" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q89">
-        <v>500</v>
+      <c r="P89" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q89" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V89">
         <v>0.48</v>
@@ -6265,19 +6259,19 @@
       <c r="W89">
         <v>500</v>
       </c>
-      <c r="X89" t="s">
-        <v>27</v>
+      <c r="X89" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="O90">
+      <c r="O90" s="61">
         <v>0.34</v>
       </c>
-      <c r="P90" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q90">
-        <v>500</v>
+      <c r="P90" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q90" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V90">
         <v>0.46</v>
@@ -6285,26 +6279,26 @@
       <c r="W90">
         <v>500</v>
       </c>
-      <c r="X90" t="s">
-        <v>27</v>
+      <c r="X90" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="91" spans="1:24">
-      <c r="B91" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="53">
+      <c r="B91" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="47">
         <f>H34+C5-H57</f>
         <v>68.671999999999571</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="61">
         <v>0.32</v>
       </c>
-      <c r="P91" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q91">
-        <v>500</v>
+      <c r="P91" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q91" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V91">
         <v>0.44</v>
@@ -6312,19 +6306,19 @@
       <c r="W91">
         <v>500</v>
       </c>
-      <c r="X91" t="s">
-        <v>27</v>
+      <c r="X91" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="92" spans="1:24">
-      <c r="O92">
+      <c r="O92" s="61">
         <v>0.3</v>
       </c>
-      <c r="P92" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q92">
-        <v>500</v>
+      <c r="P92" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q92" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V92">
         <v>0.42</v>
@@ -6332,19 +6326,19 @@
       <c r="W92">
         <v>500</v>
       </c>
-      <c r="X92" t="s">
-        <v>27</v>
+      <c r="X92" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="O93">
+      <c r="O93" s="61">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P93" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q93">
-        <v>500</v>
+      <c r="P93" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q93" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V93">
         <v>0.4</v>
@@ -6352,19 +6346,19 @@
       <c r="W93">
         <v>500</v>
       </c>
-      <c r="X93" t="s">
-        <v>27</v>
+      <c r="X93" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="O94">
+      <c r="O94" s="61">
         <v>0.26</v>
       </c>
-      <c r="P94" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q94">
-        <v>500</v>
+      <c r="P94" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q94" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V94">
         <v>0.38</v>
@@ -6372,19 +6366,19 @@
       <c r="W94">
         <v>500</v>
       </c>
-      <c r="X94" t="s">
-        <v>27</v>
+      <c r="X94" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="95" spans="1:24">
-      <c r="O95">
+      <c r="O95" s="61">
         <v>0.24</v>
       </c>
-      <c r="P95" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q95">
-        <v>500</v>
+      <c r="P95" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q95" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V95">
         <v>0.36</v>
@@ -6392,19 +6386,19 @@
       <c r="W95">
         <v>500</v>
       </c>
-      <c r="X95" t="s">
-        <v>27</v>
+      <c r="X95" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="96" spans="1:24">
-      <c r="O96">
+      <c r="O96" s="61">
         <v>0.22</v>
       </c>
-      <c r="P96" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q96">
-        <v>500</v>
+      <c r="P96" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q96" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V96">
         <v>0.34</v>
@@ -6412,19 +6406,19 @@
       <c r="W96">
         <v>500</v>
       </c>
-      <c r="X96" t="s">
-        <v>27</v>
+      <c r="X96" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="97" spans="15:24">
-      <c r="O97">
+      <c r="O97" s="61">
         <v>0.2</v>
       </c>
-      <c r="P97" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q97">
-        <v>500</v>
+      <c r="P97" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q97" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V97">
         <v>0.31999999999999901</v>
@@ -6432,19 +6426,19 @@
       <c r="W97">
         <v>500</v>
       </c>
-      <c r="X97" t="s">
-        <v>27</v>
+      <c r="X97" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="98" spans="15:24">
-      <c r="O98">
+      <c r="O98" s="61">
         <v>0.18</v>
       </c>
-      <c r="P98" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q98">
-        <v>500</v>
+      <c r="P98" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q98" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V98">
         <v>0.29999999999999899</v>
@@ -6452,19 +6446,19 @@
       <c r="W98">
         <v>500</v>
       </c>
-      <c r="X98" t="s">
-        <v>27</v>
+      <c r="X98" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="99" spans="15:24">
-      <c r="O99">
+      <c r="O99" s="61">
         <v>0.16</v>
       </c>
-      <c r="P99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q99">
-        <v>500</v>
+      <c r="P99" s="61" t="str">
+        <v>不咨询</v>
+      </c>
+      <c r="Q99" s="61">
+        <v>759.99999999999977</v>
       </c>
       <c r="V99">
         <v>0.27999999999999903</v>
@@ -6472,55 +6466,55 @@
       <c r="W99">
         <v>500</v>
       </c>
-      <c r="X99" t="s">
-        <v>27</v>
+      <c r="X99" t="str">
+        <v>不咨询</v>
       </c>
     </row>
     <row r="1000" spans="190:204">
       <c r="GH1000" t="s">
+        <v>35</v>
+      </c>
+      <c r="GI1000" t="s">
+        <v>36</v>
+      </c>
+      <c r="GJ1000" t="s">
+        <v>37</v>
+      </c>
+      <c r="GK1000" t="s">
         <v>38</v>
       </c>
-      <c r="GI1000" t="s">
+      <c r="GL1000" t="s">
         <v>39</v>
       </c>
-      <c r="GJ1000" t="s">
+      <c r="GM1000" t="s">
         <v>40</v>
       </c>
-      <c r="GK1000" t="s">
+      <c r="GN1000" t="s">
         <v>41</v>
       </c>
-      <c r="GL1000" t="s">
+      <c r="GO1000" t="s">
         <v>42</v>
       </c>
-      <c r="GM1000" t="s">
+      <c r="GP1000" t="s">
         <v>43</v>
       </c>
-      <c r="GN1000" t="s">
+      <c r="GQ1000" t="s">
         <v>44</v>
       </c>
-      <c r="GO1000" t="s">
+      <c r="GR1000" t="s">
         <v>45</v>
       </c>
-      <c r="GP1000" t="s">
+      <c r="GS1000" t="s">
         <v>46</v>
       </c>
-      <c r="GQ1000" t="s">
+      <c r="GT1000" t="s">
         <v>47</v>
       </c>
-      <c r="GR1000" t="s">
+      <c r="GU1000" t="s">
         <v>48</v>
       </c>
-      <c r="GS1000" t="s">
+      <c r="GV1000" t="s">
         <v>49</v>
-      </c>
-      <c r="GT1000" t="s">
-        <v>50</v>
-      </c>
-      <c r="GU1000" t="s">
-        <v>51</v>
-      </c>
-      <c r="GV1000" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="1001" spans="190:204">
@@ -6528,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="GI1001" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="GJ1001">
         <v>0</v>
@@ -6540,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="GM1001" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="GN1001">
         <v>2</v>
@@ -6581,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="GM1002" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="GN1002">
         <v>2</v>
@@ -6622,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="GM1003" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="GN1003">
         <v>2</v>
@@ -6663,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="GM1004" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="GN1004">
         <v>2</v>
@@ -6704,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="GM1005" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1005">
         <v>0</v>
@@ -6742,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="GM1006" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1006">
         <v>0</v>
@@ -6780,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="GM1007" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1007">
         <v>0</v>
@@ -6818,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="GM1008" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="GN1008">
         <v>2</v>
@@ -6856,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="GM1009" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="GN1009">
         <v>2</v>
@@ -6897,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="GM1010" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="GN1010">
         <v>2</v>
@@ -6938,7 +6932,7 @@
         <v>7</v>
       </c>
       <c r="GM1011" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1011">
         <v>0</v>
@@ -6979,7 +6973,7 @@
         <v>8</v>
       </c>
       <c r="GM1012" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="GN1012">
         <v>2</v>
@@ -7020,7 +7014,7 @@
         <v>8</v>
       </c>
       <c r="GM1013" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1013">
         <v>0</v>
@@ -7058,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="GM1014" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1014">
         <v>0</v>
@@ -7096,7 +7090,7 @@
         <v>9</v>
       </c>
       <c r="GM1015" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1015">
         <v>0</v>
@@ -7134,7 +7128,7 @@
         <v>11</v>
       </c>
       <c r="GM1016" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1016">
         <v>0</v>
@@ -7172,7 +7166,7 @@
         <v>11</v>
       </c>
       <c r="GM1017" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="GN1017">
         <v>0</v>
@@ -7221,7 +7215,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7275,7 +7269,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -7293,30 +7287,30 @@
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <f>C2-C3</f>
         <v>4992</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7">
         <f>C17-760</f>
@@ -7340,7 +7334,7 @@
     </row>
     <row r="11" spans="2:20">
       <c r="F11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <f>C2*F2</f>
@@ -7400,7 +7394,7 @@
     </row>
     <row r="19" spans="3:13">
       <c r="F19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:13">
@@ -7431,8 +7425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7442,67 +7436,67 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="55" t="s">
-        <v>65</v>
+      <c r="F3" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60" t="s">
+      <c r="J3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="P3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="C4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="P3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="C4" s="55" t="s">
+      <c r="F4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="I4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="J4" s="53"/>
+      <c r="L4" s="55">
+        <v>1</v>
+      </c>
+      <c r="M4" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="L4" s="61">
-        <v>1</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>74</v>
+      <c r="N4" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="C5" s="55">
+      <c r="C5" s="49">
         <v>1</v>
       </c>
       <c r="D5">
@@ -7523,21 +7517,21 @@
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="55">
         <v>1</v>
       </c>
-      <c r="M5" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="61">
+      <c r="M5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="55">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="55">
+      <c r="C6" s="49">
         <v>2</v>
       </c>
       <c r="D6">
@@ -7552,27 +7546,27 @@
       <c r="G6">
         <v>15</v>
       </c>
-      <c r="H6" s="62" t="s">
-        <v>94</v>
+      <c r="H6" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="55">
         <v>1</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="C7" s="55">
+      <c r="C7" s="49">
         <v>3</v>
       </c>
       <c r="D7">
@@ -7593,18 +7587,18 @@
       <c r="I7">
         <v>9</v>
       </c>
-      <c r="L7" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="61">
+      <c r="L7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="55">
         <v>1</v>
       </c>
-      <c r="N7" s="61" t="s">
-        <v>74</v>
+      <c r="N7" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="C8" s="55">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
       <c r="D8">
@@ -7625,18 +7619,18 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="L8" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="61">
+      <c r="L8" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="55">
         <v>1</v>
       </c>
-      <c r="N8" s="61" t="s">
-        <v>74</v>
+      <c r="N8" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="C9" s="55">
+      <c r="C9" s="49">
         <v>5</v>
       </c>
       <c r="D9">
@@ -7657,18 +7651,18 @@
       <c r="I9">
         <v>9</v>
       </c>
-      <c r="L9" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="61">
+      <c r="L9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="55">
         <v>0.99999999999333833</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="C10" s="55">
+      <c r="C10" s="49">
         <v>6</v>
       </c>
       <c r="D10">
@@ -7689,18 +7683,18 @@
       <c r="I10">
         <v>8</v>
       </c>
-      <c r="L10" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="61">
+      <c r="L10" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="55">
         <v>1</v>
       </c>
-      <c r="N10" s="61" t="s">
-        <v>74</v>
+      <c r="N10" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="C11" s="55">
+      <c r="C11" s="49">
         <v>7</v>
       </c>
       <c r="D11">
@@ -7721,18 +7715,18 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="L11" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="61">
+      <c r="L11" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="55">
         <v>1</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="C12" s="55">
+      <c r="C12" s="49">
         <v>8</v>
       </c>
       <c r="D12">
@@ -7753,18 +7747,18 @@
       <c r="I12">
         <v>7</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="55">
         <v>1</v>
       </c>
-      <c r="M12" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>74</v>
+      <c r="M12" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="C13" s="55">
+      <c r="C13" s="49">
         <v>9</v>
       </c>
       <c r="D13">
@@ -7785,18 +7779,18 @@
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="L13" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="61">
+      <c r="L13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="C14" s="55">
+      <c r="C14" s="49">
         <v>10</v>
       </c>
       <c r="D14">
@@ -7820,26 +7814,26 @@
     </row>
     <row r="18" spans="3:14">
       <c r="D18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="53"/>
-      <c r="D19" s="53" t="str">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47" t="str">
         <f>P4</f>
         <v>投资经理</v>
       </c>
-      <c r="E19" s="53" t="str">
+      <c r="E19" s="47" t="str">
         <f>P5</f>
         <v>分析师</v>
       </c>
-      <c r="F19" s="53" t="str">
+      <c r="F19" s="47" t="str">
         <f>P6</f>
         <v>会计</v>
       </c>
@@ -7858,24 +7852,24 @@
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>67</v>
+      <c r="C20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="63">
+      <c r="C21" s="57">
         <v>1</v>
       </c>
-      <c r="D21" s="61">
-        <v>0</v>
-      </c>
-      <c r="E21" s="61">
-        <v>0</v>
-      </c>
-      <c r="F21" s="61">
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
         <v>0</v>
       </c>
       <c r="G21">
@@ -7883,12 +7877,12 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="49">
         <v>1</v>
       </c>
       <c r="L21">
@@ -7902,29 +7896,29 @@
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="63">
+      <c r="C22" s="57">
         <v>2</v>
       </c>
-      <c r="D22" s="61">
-        <v>0</v>
-      </c>
-      <c r="E22" s="61">
-        <v>0</v>
-      </c>
-      <c r="F22" s="61">
-        <v>0.99999999995165434</v>
+      <c r="D22" s="55">
+        <v>0</v>
+      </c>
+      <c r="E22" s="55">
+        <v>0</v>
+      </c>
+      <c r="F22" s="55">
+        <v>1</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:G30" si="0">SUM(D22:F22)</f>
-        <v>0.99999999995165434</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="49">
         <v>2</v>
       </c>
       <c r="L22">
@@ -7933,21 +7927,21 @@
       <c r="M22">
         <v>15</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="63">
+      <c r="C23" s="57">
         <v>3</v>
       </c>
-      <c r="D23" s="61">
-        <v>0</v>
-      </c>
-      <c r="E23" s="61">
-        <v>0</v>
-      </c>
-      <c r="F23" s="61">
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0</v>
+      </c>
+      <c r="F23" s="55">
         <v>0</v>
       </c>
       <c r="G23">
@@ -7955,12 +7949,12 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="49">
         <v>3</v>
       </c>
       <c r="L23">
@@ -7974,16 +7968,16 @@
       </c>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="63">
+      <c r="C24" s="57">
         <v>4</v>
       </c>
-      <c r="D24" s="61">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61">
-        <v>0</v>
-      </c>
-      <c r="F24" s="61">
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
         <v>0</v>
       </c>
       <c r="G24">
@@ -7991,12 +7985,12 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="49">
         <v>4</v>
       </c>
       <c r="L24">
@@ -8010,29 +8004,29 @@
       </c>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="63">
+      <c r="C25" s="57">
         <v>5</v>
       </c>
-      <c r="D25" s="61">
-        <v>0</v>
-      </c>
-      <c r="E25" s="61">
-        <v>0.99999999990297317</v>
-      </c>
-      <c r="F25" s="61">
+      <c r="D25" s="55">
+        <v>0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F25" s="55">
         <v>0</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0.99999999990297317</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="49">
         <v>5</v>
       </c>
       <c r="L25">
@@ -8046,29 +8040,29 @@
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="63">
+      <c r="C26" s="57">
         <v>6</v>
       </c>
-      <c r="D26" s="61">
-        <v>0</v>
-      </c>
-      <c r="E26" s="61">
-        <v>0</v>
-      </c>
-      <c r="F26" s="61">
-        <v>1.0000000000000002</v>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
+        <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="49">
         <v>6</v>
       </c>
       <c r="L26">
@@ -8082,29 +8076,29 @@
       </c>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="63">
+      <c r="C27" s="57">
         <v>7</v>
       </c>
-      <c r="D27" s="61">
-        <v>0</v>
-      </c>
-      <c r="E27" s="61">
-        <v>0.9999999999999869</v>
-      </c>
-      <c r="F27" s="61">
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="55">
         <v>0</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0.9999999999999869</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="49">
         <v>7</v>
       </c>
       <c r="L27">
@@ -8118,29 +8112,29 @@
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="63">
+      <c r="C28" s="57">
         <v>8</v>
       </c>
-      <c r="D28" s="61">
-        <v>0</v>
-      </c>
-      <c r="E28" s="61">
-        <v>0</v>
-      </c>
-      <c r="F28" s="61">
+      <c r="D28" s="55">
+        <v>0</v>
+      </c>
+      <c r="E28" s="55">
+        <v>3.9613295613831711E-12</v>
+      </c>
+      <c r="F28" s="55">
         <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9613295613831711E-12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K28" s="49">
         <v>8</v>
       </c>
       <c r="L28">
@@ -8154,29 +8148,29 @@
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="63">
+      <c r="C29" s="57">
         <v>9</v>
       </c>
-      <c r="D29" s="61">
-        <v>0.99999999999333888</v>
-      </c>
-      <c r="E29" s="61">
-        <v>0</v>
-      </c>
-      <c r="F29" s="61">
+      <c r="D29" s="55">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="E29" s="55">
+        <v>0</v>
+      </c>
+      <c r="F29" s="55">
         <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0.99999999999333888</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="49">
         <v>9</v>
       </c>
       <c r="L29">
@@ -8190,16 +8184,16 @@
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="63">
+      <c r="C30" s="57">
         <v>10</v>
       </c>
-      <c r="D30" s="61">
-        <v>0</v>
-      </c>
-      <c r="E30" s="61">
-        <v>0</v>
-      </c>
-      <c r="F30" s="61">
+      <c r="D30" s="55">
+        <v>0</v>
+      </c>
+      <c r="E30" s="55">
+        <v>0</v>
+      </c>
+      <c r="F30" s="55">
         <v>0</v>
       </c>
       <c r="G30">
@@ -8207,12 +8201,12 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="55">
+      <c r="K30" s="49">
         <v>10</v>
       </c>
       <c r="L30">
@@ -8228,61 +8222,61 @@
     <row r="32" spans="3:14">
       <c r="D32">
         <f>SUM(D21:D30)</f>
-        <v>0.99999999999333888</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="E32">
         <f>SUM(E21:E30)</f>
-        <v>1.9999999999029601</v>
+        <v>2.0000000000039613</v>
       </c>
       <c r="F32">
         <f>SUM(F21:F30)</f>
-        <v>1.9999999999516547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="D33" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
+      <c r="D33" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="D34" s="66">
+      <c r="D34" s="60">
         <v>1</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="60">
         <v>2</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="G36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M36" s="7">
         <f>SUMPRODUCT(D21:D30,I5:I14)+SUMPRODUCT(E21:E30,I5:I14)+SUMPRODUCT(F21:F30,I5:I14)</f>
-        <v>43.999999998673267</v>
+        <v>44.000000000027725</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="F37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G37">
         <f>SUM(Assignment)</f>
-        <v>4.9999999998479527</v>
+        <v>5.0000000000039613</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I37" s="3">
         <v>5</v>
@@ -8290,44 +8284,46 @@
     </row>
     <row r="38" spans="1:13">
       <c r="F38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G38">
         <f>SUMPRODUCT(D21:D30,F5:F14)+SUMPRODUCT(E21:E30,F5:F14)+SUMPRODUCT(F21:F30,F5:F14)</f>
-        <v>4.9999999998479536</v>
+        <v>5.0000000000039613</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I38" s="3">
+        <f>0.8*I37</f>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="F39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G39">
         <f>SUMPRODUCT(D21:D30,D5:D14)+SUMPRODUCT(E21:E30,D5:D14)+SUMPRODUCT(F21:F30,D5:D14)</f>
-        <v>1.9999999999933258</v>
+        <v>2.0000000000039608</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I39" s="3">
+        <f>0.4*I37</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="F40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G40">
         <f>SUMPRODUCT(D21:D30,E5:E14)+SUMPRODUCT(E21:E30,E5:E14)+SUMPRODUCT(F21:F30,E5:E14)</f>
-        <v>155.99999999480252</v>
+        <v>156.00000000009109</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I40" s="3">
         <v>165</v>
@@ -8335,14 +8331,14 @@
     </row>
     <row r="41" spans="1:13">
       <c r="F41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G41">
         <f>SUMPRODUCT(D21:D30,G5:G14)+SUMPRODUCT(E21:E30,G5:G14)+SUMPRODUCT(F21:F30,G5:G14)</f>
-        <v>41.999999998251234</v>
+        <v>42</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I41" s="3">
         <v>25</v>
@@ -8350,14 +8346,14 @@
     </row>
     <row r="42" spans="1:13">
       <c r="F42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <f>SUMPRODUCT(Assignment,Salary)</f>
-        <v>55.999999998426262</v>
+        <v>56.000000000027725</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I42" s="3">
         <v>60</v>
@@ -8365,240 +8361,346 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="C45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="C46" s="67"/>
-      <c r="D46" s="67">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61">
         <f>D29</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="E46" s="61">
+        <f>MaxCapacity</f>
+        <v>44.000000000027725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="C47" s="61">
+        <v>7</v>
+      </c>
+      <c r="D47" s="61">
+        <v>0</v>
+      </c>
+      <c r="E47" s="61">
+        <v>42.99999999983347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="C48" s="61">
+        <v>8</v>
+      </c>
+      <c r="D48" s="61">
+        <v>0</v>
+      </c>
+      <c r="E48" s="61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16">
+      <c r="C49" s="61">
+        <v>9</v>
+      </c>
+      <c r="D49" s="61">
+        <v>0</v>
+      </c>
+      <c r="E49" s="61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16">
+      <c r="C50" s="61">
+        <v>10</v>
+      </c>
+      <c r="D50" s="61">
         <v>0.99999999999333888</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E50" s="61">
+        <v>44.000000000477399</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16">
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16">
+      <c r="C53" s="61"/>
+      <c r="D53" s="61">
         <f>MaxCapacity</f>
-        <v>43.999999998673267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="C47" s="67">
+        <v>44.000000000027725</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61">
+        <f>MaxCapacity</f>
+        <v>44.000000000027725</v>
+      </c>
+      <c r="J53">
+        <f>MaxCapacity</f>
+        <v>44.000000000027725</v>
+      </c>
+      <c r="K53">
+        <v>60</v>
+      </c>
+      <c r="L53">
+        <v>62</v>
+      </c>
+      <c r="M53">
+        <v>64</v>
+      </c>
+      <c r="N53">
+        <v>66</v>
+      </c>
+      <c r="O53">
+        <v>68</v>
+      </c>
+      <c r="P53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16">
+      <c r="C54" s="61">
+        <v>60</v>
+      </c>
+      <c r="D54" s="61">
+        <v>43.999999999999986</v>
+      </c>
+      <c r="F54" s="61">
+        <v>60</v>
+      </c>
+      <c r="G54" s="61">
+        <v>44.000000000279769</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>44.000000000014012</v>
+      </c>
+      <c r="L54">
+        <v>44.000000000000007</v>
+      </c>
+      <c r="M54">
+        <v>43.999999999999993</v>
+      </c>
+      <c r="N54">
+        <v>43.000000000337508</v>
+      </c>
+      <c r="O54">
+        <v>44.00000000024869</v>
+      </c>
+      <c r="P54">
+        <v>43.999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16">
+      <c r="C55" s="61">
+        <v>62</v>
+      </c>
+      <c r="D55" s="61">
+        <v>43.000000000337515</v>
+      </c>
+      <c r="F55" s="61">
+        <v>58</v>
+      </c>
+      <c r="G55" s="61">
+        <v>43.999999999999993</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>46.827586206313356</v>
+      </c>
+      <c r="L55">
+        <v>47.008695652333458</v>
+      </c>
+      <c r="M55">
+        <v>47.199999999872318</v>
+      </c>
+      <c r="N55">
+        <v>47.20000000000001</v>
+      </c>
+      <c r="O55">
+        <v>47.2</v>
+      </c>
+      <c r="P55">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16">
+      <c r="C56" s="61">
+        <v>64</v>
+      </c>
+      <c r="D56" s="61">
+        <v>44.000000000248683</v>
+      </c>
+      <c r="F56" s="61">
+        <v>56</v>
+      </c>
+      <c r="G56" s="61">
+        <v>44</v>
+      </c>
+      <c r="J56">
         <v>7</v>
       </c>
-      <c r="D47" s="67">
-        <v>0</v>
-      </c>
-      <c r="E47" s="67">
-        <v>42.99999999983347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="C48" s="67">
+      <c r="K56">
+        <v>47.933333333191854</v>
+      </c>
+      <c r="L56">
+        <v>47.933333333329003</v>
+      </c>
+      <c r="M56">
+        <v>47.933333333333344</v>
+      </c>
+      <c r="N56">
+        <v>47.933333333333344</v>
+      </c>
+      <c r="O56">
+        <v>47.933333333333337</v>
+      </c>
+      <c r="P56">
+        <v>47.93333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57" s="61">
+        <v>66</v>
+      </c>
+      <c r="D57" s="61">
+        <v>42.999999999609209</v>
+      </c>
+      <c r="F57" s="61">
+        <v>54</v>
+      </c>
+      <c r="G57" s="61">
+        <v>43.000000000479623</v>
+      </c>
+      <c r="J57">
         <v>8</v>
       </c>
-      <c r="D48" s="67">
-        <v>0</v>
-      </c>
-      <c r="E48" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="67">
-        <v>9</v>
-      </c>
-      <c r="D49" s="67">
-        <v>0</v>
-      </c>
-      <c r="E49" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="67">
-        <v>10</v>
-      </c>
-      <c r="D50" s="67">
-        <v>0.99999999999333888</v>
-      </c>
-      <c r="E50" s="67">
-        <v>44.000000000477399</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="C53" s="67"/>
-      <c r="D53" s="67">
-        <f>MaxCapacity</f>
-        <v>43.999999998673267</v>
-      </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67">
-        <f>MaxCapacity</f>
-        <v>43.999999998673267</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="C54" s="67">
-        <v>60</v>
-      </c>
-      <c r="D54" s="67">
+      <c r="K57">
+        <v>47.972972973011707</v>
+      </c>
+      <c r="L57">
+        <v>47.972972972972975</v>
+      </c>
+      <c r="M57">
+        <v>47.972972972972968</v>
+      </c>
+      <c r="N57">
+        <v>47.972972972972968</v>
+      </c>
+      <c r="O57">
+        <v>47.972972972972968</v>
+      </c>
+      <c r="P57">
+        <v>47.394594594571657</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16">
+      <c r="C58" s="61">
+        <v>68</v>
+      </c>
+      <c r="D58" s="61">
+        <v>43.999999999587111</v>
+      </c>
+      <c r="F58" s="61">
+        <v>52</v>
+      </c>
+      <c r="G58" s="61">
+        <v>42.999999999908951</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16">
+      <c r="C59" s="61">
+        <v>70</v>
+      </c>
+      <c r="D59" s="61">
+        <v>44</v>
+      </c>
+      <c r="F59" s="61">
+        <v>50</v>
+      </c>
+      <c r="G59" s="61">
+        <v>41.00000000134537</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16">
+      <c r="C60" s="61">
+        <v>72</v>
+      </c>
+      <c r="D60" s="61">
+        <v>43.999999999999993</v>
+      </c>
+      <c r="F60" s="61">
+        <v>48</v>
+      </c>
+      <c r="G60" s="61">
+        <v>39.666666666841181</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16">
+      <c r="C61" s="61">
+        <v>74</v>
+      </c>
+      <c r="D61" s="61">
+        <v>44.000000000000007</v>
+      </c>
+      <c r="F61" s="61">
+        <v>46</v>
+      </c>
+      <c r="G61" s="61">
+        <v>37.028985507278833</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16">
+      <c r="C62" s="61">
+        <v>76</v>
+      </c>
+      <c r="D62" s="61">
         <v>43.999999999999986</v>
       </c>
-      <c r="F54" s="67">
-        <v>60</v>
-      </c>
-      <c r="G54" s="67">
-        <v>44.000000000279769</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" s="67">
-        <v>62</v>
-      </c>
-      <c r="D55" s="67">
-        <v>43.000000000337515</v>
-      </c>
-      <c r="F55" s="67">
-        <v>58</v>
-      </c>
-      <c r="G55" s="67">
-        <v>43.999999999999993</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="67">
-        <v>64</v>
-      </c>
-      <c r="D56" s="67">
-        <v>44.000000000248683</v>
-      </c>
-      <c r="F56" s="67">
-        <v>56</v>
-      </c>
-      <c r="G56" s="67">
+      <c r="F62" s="61">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" s="67">
-        <v>66</v>
-      </c>
-      <c r="D57" s="67">
-        <v>42.999999999609209</v>
-      </c>
-      <c r="F57" s="67">
-        <v>54</v>
-      </c>
-      <c r="G57" s="67">
-        <v>43.000000000479623</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" s="67">
-        <v>68</v>
-      </c>
-      <c r="D58" s="67">
-        <v>43.999999999587111</v>
-      </c>
-      <c r="F58" s="67">
-        <v>52</v>
-      </c>
-      <c r="G58" s="67">
-        <v>42.999999999908951</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="67">
-        <v>70</v>
-      </c>
-      <c r="D59" s="67">
+      <c r="G62" s="61">
+        <v>35.362318840592671</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16">
+      <c r="C63" s="61">
+        <v>78</v>
+      </c>
+      <c r="D63" s="61">
         <v>44</v>
       </c>
-      <c r="F59" s="67">
-        <v>50</v>
-      </c>
-      <c r="G59" s="67">
-        <v>41.00000000134537</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" s="67">
-        <v>72</v>
-      </c>
-      <c r="D60" s="67">
-        <v>43.999999999999993</v>
-      </c>
-      <c r="F60" s="67">
-        <v>48</v>
-      </c>
-      <c r="G60" s="67">
-        <v>39.666666666841181</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="C61" s="67">
-        <v>74</v>
-      </c>
-      <c r="D61" s="67">
-        <v>44.000000000000007</v>
-      </c>
-      <c r="F61" s="67">
-        <v>46</v>
-      </c>
-      <c r="G61" s="67">
-        <v>37.028985507278833</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="C62" s="67">
-        <v>76</v>
-      </c>
-      <c r="D62" s="67">
-        <v>43.999999999999986</v>
-      </c>
-      <c r="F62" s="67">
+      <c r="F63" s="61">
+        <v>42</v>
+      </c>
+      <c r="G63" s="61">
+        <v>33.695652173896114</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16">
+      <c r="C64" s="61">
+        <v>80</v>
+      </c>
+      <c r="D64" s="61">
         <v>44</v>
       </c>
-      <c r="G62" s="67">
-        <v>35.362318840592671</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="C63" s="67">
-        <v>78</v>
-      </c>
-      <c r="D63" s="67">
-        <v>44</v>
-      </c>
-      <c r="F63" s="67">
-        <v>42</v>
-      </c>
-      <c r="G63" s="67">
-        <v>33.695652173896114</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="C64" s="67">
-        <v>80</v>
-      </c>
-      <c r="D64" s="67">
-        <v>44</v>
-      </c>
-      <c r="F64" s="67">
+      <c r="F64" s="61">
         <v>40</v>
       </c>
-      <c r="G64" s="67">
+      <c r="G64" s="61">
         <v>32.000000000017046</v>
       </c>
     </row>
